--- a/data/trans_dic/P1403-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1403-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09888405876447459</v>
+        <v>0.09731362821569144</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07883171591387056</v>
+        <v>0.07726376875706402</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07754878486563917</v>
+        <v>0.08062054261294165</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1717805067411023</v>
+        <v>0.178397259302133</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1066880914076106</v>
+        <v>0.107282891306608</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1102294816693006</v>
+        <v>0.1107979673289139</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08163467238229782</v>
+        <v>0.08412758731249255</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1593947532593992</v>
+        <v>0.1565840880142636</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.111030842459477</v>
+        <v>0.1117017352125605</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1028285541034837</v>
+        <v>0.1043832152148294</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.09233059898977478</v>
+        <v>0.09230042044196653</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1783819552529824</v>
+        <v>0.1754784058319927</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1743964770844733</v>
+        <v>0.1738479242805962</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.155276610731795</v>
+        <v>0.1582173239363884</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1584477328905729</v>
+        <v>0.1623255951489569</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2620632247465894</v>
+        <v>0.2617765060031665</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1987247711801415</v>
+        <v>0.1966522414719637</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2005688060527448</v>
+        <v>0.2020440433289928</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.160002718234235</v>
+        <v>0.1609963195705207</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2237761263377117</v>
+        <v>0.2206151199399972</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1695157015309003</v>
+        <v>0.1712191527406071</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.15835913951576</v>
+        <v>0.1615709209676372</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1483755090835371</v>
+        <v>0.1492894396471613</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2362152185033123</v>
+        <v>0.2302140779407181</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.1968353211163204</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1626986120595876</v>
+        <v>0.1626986120595875</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07077285348032597</v>
+        <v>0.07070044992687652</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1254192386124785</v>
+        <v>0.1265604228647646</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1368787851212334</v>
+        <v>0.1346700036500686</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1336541967475647</v>
+        <v>0.1335713780200792</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1425881753540557</v>
+        <v>0.1468211242460675</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1670687385245201</v>
+        <v>0.1655854228086801</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1896090547639272</v>
+        <v>0.1887256294661002</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1353784162541839</v>
+        <v>0.137536435256109</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1167020859943525</v>
+        <v>0.1152512068312286</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1578668118871154</v>
+        <v>0.157086140376698</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1719613314540876</v>
+        <v>0.172753305173134</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.143742735171671</v>
+        <v>0.1415681170629418</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1244161571785863</v>
+        <v>0.1263455884391341</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1972502160925067</v>
+        <v>0.1969026493835602</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2038116351631112</v>
+        <v>0.204161925320246</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2029587530745284</v>
+        <v>0.2029254300009311</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2110635009612482</v>
+        <v>0.214169440292796</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2440032638467199</v>
+        <v>0.2392755665546383</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2619633747071796</v>
+        <v>0.2672525598653907</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1903740844815686</v>
+        <v>0.187867005382888</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1587305793406813</v>
+        <v>0.1602943922902168</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2071643398044073</v>
+        <v>0.2073100437756083</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2243795215788039</v>
+        <v>0.2233457382331377</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1869418899399459</v>
+        <v>0.1838161766719003</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1478299563298755</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2003242701430574</v>
+        <v>0.2003242701430575</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2110183420764136</v>
@@ -957,7 +957,7 @@
         <v>0.1513440419259322</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2190221520830474</v>
+        <v>0.2190221520830475</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1787067430720456</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1102644423542819</v>
+        <v>0.1090039038930034</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.144065930132664</v>
+        <v>0.1449482068291744</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1121075765945961</v>
+        <v>0.1135291575291442</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1652476629962565</v>
+        <v>0.1672567686780617</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1671332565412103</v>
+        <v>0.1688024095015682</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1865874732987944</v>
+        <v>0.1854956599114382</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1167394489867837</v>
+        <v>0.1108994294028748</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1863254630209344</v>
+        <v>0.1850895208074913</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1495873802040375</v>
+        <v>0.152727885901136</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1780456777236598</v>
+        <v>0.1740118647404187</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1258442001363495</v>
+        <v>0.1240292756747569</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1870060505981368</v>
+        <v>0.1861460978245058</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1895667221221457</v>
+        <v>0.1863452960635851</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2331961867489266</v>
+        <v>0.2283268049975286</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1873419501905532</v>
+        <v>0.1914469432626937</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2424432855312574</v>
+        <v>0.2439711831142047</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.256061442648276</v>
+        <v>0.2587122758382348</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2819832940267107</v>
+        <v>0.2800174811078507</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2025678456394456</v>
+        <v>0.1976952015200705</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2523367341637243</v>
+        <v>0.2534345700751378</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2078721253799857</v>
+        <v>0.2119021884068475</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2391210233812673</v>
+        <v>0.2394066309777451</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1825193372975615</v>
+        <v>0.1789401329060948</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2367321094692378</v>
+        <v>0.234878934727172</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1113358417389359</v>
+        <v>0.1129266261400856</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1401005306948492</v>
+        <v>0.1429361570113336</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1295066897351869</v>
+        <v>0.130735403621553</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1539401950763353</v>
+        <v>0.1521134608544707</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1535862361605281</v>
+        <v>0.150549688470943</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2110606346888956</v>
+        <v>0.2086831566265794</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.154780512589723</v>
+        <v>0.1607619784206107</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1921965004396914</v>
+        <v>0.1936790040133775</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1420206664820951</v>
+        <v>0.1409200177720467</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1886739119154953</v>
+        <v>0.1877905554513232</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1569134877169742</v>
+        <v>0.1580349283130122</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1830636226193018</v>
+        <v>0.1834744861970362</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1834548327724409</v>
+        <v>0.1861919626119218</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2293330190507296</v>
+        <v>0.2279948426624496</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2082927941917513</v>
+        <v>0.2097866991224402</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2433511210975975</v>
+        <v>0.2392447060047982</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2317307065200934</v>
+        <v>0.2285725436951462</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3010404297208299</v>
+        <v>0.3006499109472203</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2527550208569335</v>
+        <v>0.2479654848498625</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2535973349148128</v>
+        <v>0.2576003535424722</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1950708198326515</v>
+        <v>0.1925234212372854</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2526265010974348</v>
+        <v>0.2499149500265812</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2139748898541304</v>
+        <v>0.2173842368179877</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2347450236174946</v>
+        <v>0.2377661231333108</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04653466344392237</v>
+        <v>0.04863999639332545</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1012863724097937</v>
+        <v>0.106152758117039</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0811041172921981</v>
+        <v>0.08525595196550476</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1833307604859078</v>
+        <v>0.179415573930254</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1017064284648128</v>
+        <v>0.1021109474473504</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2079168061898633</v>
+        <v>0.2058266155647752</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.149810392315313</v>
+        <v>0.148899557242568</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2408420392810995</v>
+        <v>0.2387408152830426</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.08370106424510462</v>
+        <v>0.08437177604498224</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.168345742294387</v>
+        <v>0.1683597797231736</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1259950024170954</v>
+        <v>0.1286688873371038</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.223874311595149</v>
+        <v>0.2261896885306233</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1214099439104966</v>
+        <v>0.1200505867034538</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2076356712258167</v>
+        <v>0.2093807660778331</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1740180112491735</v>
+        <v>0.181222133083382</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.276850981425491</v>
+        <v>0.2722090924414498</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2037515092470344</v>
+        <v>0.2012174188113845</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3296439924702704</v>
+        <v>0.327431513836102</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2578470500824676</v>
+        <v>0.2564488416603088</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3162032618899974</v>
+        <v>0.3170819135969835</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1455612455380461</v>
+        <v>0.1443691648897358</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2467117938487012</v>
+        <v>0.2521221940411225</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1995695212560607</v>
+        <v>0.1987797418166462</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.28609471144909</v>
+        <v>0.2841596012948123</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.1376502492154035</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.2662312220313466</v>
+        <v>0.2662312220313465</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.1895459015374595</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1131131665997374</v>
+        <v>0.1128062231007588</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1846779381947484</v>
+        <v>0.1828773316759411</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1020978602235932</v>
+        <v>0.09886715160372755</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.22453366979306</v>
+        <v>0.2244612841446589</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1481690163220696</v>
+        <v>0.1464711681146331</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1793503300730757</v>
+        <v>0.1800932838407486</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.131175619874478</v>
+        <v>0.1295929358416741</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2030098908212364</v>
+        <v>0.206944326371458</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1406581278475218</v>
+        <v>0.1416494074079104</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1967255768297846</v>
+        <v>0.1989742312305425</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1258528663904127</v>
+        <v>0.1277147075833073</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.225275822098462</v>
+        <v>0.2252384065362867</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1944261182034342</v>
+        <v>0.1950750014423879</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2855301038969089</v>
+        <v>0.2883797862557054</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.184728041122429</v>
+        <v>0.1820428309090794</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3093181688279762</v>
+        <v>0.3123227782809734</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2456522667176829</v>
+        <v>0.2433276309179135</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2852597916781182</v>
+        <v>0.2783395530838736</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2224159841310578</v>
+        <v>0.2226791805172305</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2761681073043953</v>
+        <v>0.278001890137692</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2021877915779775</v>
+        <v>0.2041684743817254</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2672684931306811</v>
+        <v>0.266169375029132</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1891113017508431</v>
+        <v>0.1886745704366186</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2808544519921391</v>
+        <v>0.2809522162101478</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.1427112885684758</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.2129240954958173</v>
+        <v>0.2129240954958172</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.1586786839045678</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1165384474355366</v>
+        <v>0.1165151432663356</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.155694478384731</v>
+        <v>0.1609856336876294</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1169329956543749</v>
+        <v>0.1181387871656025</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1537817361346565</v>
+        <v>0.1561205528735101</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1421834846087051</v>
+        <v>0.1477149828084946</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2005442282908154</v>
+        <v>0.1951450407748271</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1154436822220589</v>
+        <v>0.1147163893852395</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1897999703420048</v>
+        <v>0.1898180984659079</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1386862236306428</v>
+        <v>0.1382048493128725</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1872415398594187</v>
+        <v>0.1883030154957194</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1240402847928619</v>
+        <v>0.1241047108724228</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1796750965699554</v>
+        <v>0.1808121531099204</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1736297967147248</v>
+        <v>0.1712533743042649</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2227134541855449</v>
+        <v>0.2272328196316172</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1746885722135738</v>
+        <v>0.1751692221796258</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2145775634752562</v>
+        <v>0.2185899491703079</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2016351112336847</v>
+        <v>0.2052797703050752</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2637314772186478</v>
+        <v>0.2638009423536125</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1739341608773866</v>
+        <v>0.1714683593619991</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2419043868363605</v>
+        <v>0.2404427065892053</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1797505913853612</v>
+        <v>0.1806382393645038</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2328393062895388</v>
+        <v>0.2336202645118196</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1631427890407968</v>
+        <v>0.1653315326841804</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2193488606273213</v>
+        <v>0.2174511402574201</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1135408419682248</v>
+        <v>0.1121387668849555</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1201374302903526</v>
+        <v>0.1200039945273888</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1409539608219247</v>
+        <v>0.1381214431924565</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1454449256558896</v>
+        <v>0.1436885047168351</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1174737736978247</v>
+        <v>0.1186335683712775</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1431886905587689</v>
+        <v>0.1430565125298499</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1626514659603619</v>
+        <v>0.1629819004477856</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1872209560629048</v>
+        <v>0.1859035628506608</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1226039476354876</v>
+        <v>0.1213825194215162</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1396555902458541</v>
+        <v>0.1387284020573379</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1612181989567107</v>
+        <v>0.1603047988905965</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.171305715474905</v>
+        <v>0.1725489115219163</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1633776915881019</v>
+        <v>0.1614815773130578</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1755482786188894</v>
+        <v>0.1733217489975644</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1946946054437985</v>
+        <v>0.1943991392761792</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1928327552441145</v>
+        <v>0.1958453955423413</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1686885549477961</v>
+        <v>0.1679271911620635</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1951210648866101</v>
+        <v>0.1991524280741591</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.22743358216831</v>
+        <v>0.2229140026785986</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2313670019370553</v>
+        <v>0.2323915561169614</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1579540209601395</v>
+        <v>0.1583826680599858</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1787513143269409</v>
+        <v>0.1766742278441918</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.2006388639106048</v>
+        <v>0.1992511796751334</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2055041310643357</v>
+        <v>0.2059794256209188</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.1514792265437319</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.1914574042116959</v>
+        <v>0.1914574042116958</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.1695076079990115</v>
@@ -1773,7 +1773,7 @@
         <v>0.1775696854656333</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.2094539160882854</v>
+        <v>0.2094539160882853</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.1502492372171193</v>
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1190774442169663</v>
+        <v>0.1199360001544244</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1545451281408175</v>
+        <v>0.1551357116521257</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1407467184313437</v>
+        <v>0.1402524675108192</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1799135786488717</v>
+        <v>0.1792595713738267</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1572873601588115</v>
+        <v>0.1570960726635292</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1965456280369122</v>
+        <v>0.1961909835707255</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1646829496265349</v>
+        <v>0.164580379928122</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1994117955380253</v>
+        <v>0.2003165303538612</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1410635251657069</v>
+        <v>0.14192235129128</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1791697911722974</v>
+        <v>0.1804435993573174</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1561655219439043</v>
+        <v>0.1553508186577207</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1920994022419835</v>
+        <v>0.1928770684469373</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.140764783986977</v>
+        <v>0.1420972124981716</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1812543355865568</v>
+        <v>0.1810603239779834</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1650040590614794</v>
+        <v>0.1647289656398298</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2054466332475294</v>
+        <v>0.2049459219049194</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1824461428922814</v>
+        <v>0.1815213150850077</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2236760078358644</v>
+        <v>0.2239258875936537</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1930660623732073</v>
+        <v>0.1916367501233719</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2203134357291446</v>
+        <v>0.2209614251038768</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1583193070288458</v>
+        <v>0.1593495410290106</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1990857311681808</v>
+        <v>0.1996610315538545</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.1739489397607601</v>
+        <v>0.1732541285381172</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2082534406605682</v>
+        <v>0.2090058879738482</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>26996</v>
+        <v>26568</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>23235</v>
+        <v>22773</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>22781</v>
+        <v>23683</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>54771</v>
+        <v>56881</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>27828</v>
+        <v>27983</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>31663</v>
+        <v>31826</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>23568</v>
+        <v>24288</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>50378</v>
+        <v>49490</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>59274</v>
+        <v>59632</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>59844</v>
+        <v>60749</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>53779</v>
+        <v>53762</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>113256</v>
+        <v>111412</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>47612</v>
+        <v>47462</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>45766</v>
+        <v>46633</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>46546</v>
+        <v>47685</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>83558</v>
+        <v>83466</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>51835</v>
+        <v>51294</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>57612</v>
+        <v>58036</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>46193</v>
+        <v>46480</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>70727</v>
+        <v>69728</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>90496</v>
+        <v>91405</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>92162</v>
+        <v>94032</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>86423</v>
+        <v>86956</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>149974</v>
+        <v>146164</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>34896</v>
+        <v>34861</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>63403</v>
+        <v>63980</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>68792</v>
+        <v>67682</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>70791</v>
+        <v>70747</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>71857</v>
+        <v>73990</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>87319</v>
+        <v>86544</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>99181</v>
+        <v>98719</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>73649</v>
+        <v>74823</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>116355</v>
+        <v>114908</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>162316</v>
+        <v>161513</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>176374</v>
+        <v>177186</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>154335</v>
+        <v>152000</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>61346</v>
+        <v>62298</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>99715</v>
+        <v>99540</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>102431</v>
+        <v>102607</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>107499</v>
+        <v>107481</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>106365</v>
+        <v>107930</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>127530</v>
+        <v>125059</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>137029</v>
+        <v>139796</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>103568</v>
+        <v>102205</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>158258</v>
+        <v>159817</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>213003</v>
+        <v>213153</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>230137</v>
+        <v>229077</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>200717</v>
+        <v>197361</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>35157</v>
+        <v>34755</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>46684</v>
+        <v>46970</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>35714</v>
+        <v>36166</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>51963</v>
+        <v>52595</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>56058</v>
+        <v>56618</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>63630</v>
+        <v>63258</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>39261</v>
+        <v>37296</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>66403</v>
+        <v>65962</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>97869</v>
+        <v>99923</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>118412</v>
+        <v>115729</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>82412</v>
+        <v>81224</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>125450</v>
+        <v>124874</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>60443</v>
+        <v>59415</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>75566</v>
+        <v>73988</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>59681</v>
+        <v>60988</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>76237</v>
+        <v>76718</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>85886</v>
+        <v>86775</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>96162</v>
+        <v>95492</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>68125</v>
+        <v>66487</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>89928</v>
+        <v>90319</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>136002</v>
+        <v>138639</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>159031</v>
+        <v>159221</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>119527</v>
+        <v>117183</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>158808</v>
+        <v>157565</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>39933</v>
+        <v>40504</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>52395</v>
+        <v>53456</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>47913</v>
+        <v>48367</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>57442</v>
+        <v>56760</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>57051</v>
+        <v>55923</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>82092</v>
+        <v>81168</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>59944</v>
+        <v>62260</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>81099</v>
+        <v>81725</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>103693</v>
+        <v>102890</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>143946</v>
+        <v>143272</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>118822</v>
+        <v>119671</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>145555</v>
+        <v>145882</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>65800</v>
+        <v>66782</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>85766</v>
+        <v>85266</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>77061</v>
+        <v>77614</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>90805</v>
+        <v>89273</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>86078</v>
+        <v>84905</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>117090</v>
+        <v>116938</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>97888</v>
+        <v>96033</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>107008</v>
+        <v>108697</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>142426</v>
+        <v>140567</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>192737</v>
+        <v>190668</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>162032</v>
+        <v>164614</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>186647</v>
+        <v>189050</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>9461</v>
+        <v>9889</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>21535</v>
+        <v>22570</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>17131</v>
+        <v>18008</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>37705</v>
+        <v>36900</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>21121</v>
+        <v>21205</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>45657</v>
+        <v>45198</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>32747</v>
+        <v>32548</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>54532</v>
+        <v>54056</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>34399</v>
+        <v>34675</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>72761</v>
+        <v>72767</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>54154</v>
+        <v>55303</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>96733</v>
+        <v>97734</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>24684</v>
+        <v>24407</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>44147</v>
+        <v>44518</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>36756</v>
+        <v>38278</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>56939</v>
+        <v>55984</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>42313</v>
+        <v>41786</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>72387</v>
+        <v>71901</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>56362</v>
+        <v>56056</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>71596</v>
+        <v>71795</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>59822</v>
+        <v>59332</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>106631</v>
+        <v>108969</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>85777</v>
+        <v>85437</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>123618</v>
+        <v>122782</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>30632</v>
+        <v>30549</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>50598</v>
+        <v>50105</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>26864</v>
+        <v>26014</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>60783</v>
+        <v>60763</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>41212</v>
+        <v>40740</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>49877</v>
+        <v>50083</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>35826</v>
+        <v>35394</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>53412</v>
+        <v>54447</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>77215</v>
+        <v>77759</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>108608</v>
+        <v>109849</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>67487</v>
+        <v>68485</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>120254</v>
+        <v>120234</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>52653</v>
+        <v>52828</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>78230</v>
+        <v>79011</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>48606</v>
+        <v>47900</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>83735</v>
+        <v>84548</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>68327</v>
+        <v>67680</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>79330</v>
+        <v>77405</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>60745</v>
+        <v>60817</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>72660</v>
+        <v>73142</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>110992</v>
+        <v>112079</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>147553</v>
+        <v>146946</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>101409</v>
+        <v>101174</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>149922</v>
+        <v>149974</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>71674</v>
+        <v>71660</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>103192</v>
+        <v>106699</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>76773</v>
+        <v>77565</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>110177</v>
+        <v>111852</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>90744</v>
+        <v>94275</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>139148</v>
+        <v>135402</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>79806</v>
+        <v>79303</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>146279</v>
+        <v>146293</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>173808</v>
+        <v>173205</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>254020</v>
+        <v>255460</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>167188</v>
+        <v>167275</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>267203</v>
+        <v>268894</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>106787</v>
+        <v>105325</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>147612</v>
+        <v>150607</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>114693</v>
+        <v>115009</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>153734</v>
+        <v>156608</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>128687</v>
+        <v>131013</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>182991</v>
+        <v>183039</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>120240</v>
+        <v>118535</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>186435</v>
+        <v>185309</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>225272</v>
+        <v>226384</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>315879</v>
+        <v>316939</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>219892</v>
+        <v>222842</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>326204</v>
+        <v>323382</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>84451</v>
+        <v>83408</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>93599</v>
+        <v>93495</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>109744</v>
+        <v>107539</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>116076</v>
+        <v>114674</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>92042</v>
+        <v>92951</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>117784</v>
+        <v>117675</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>134377</v>
+        <v>134650</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>155507</v>
+        <v>154413</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>187254</v>
+        <v>185388</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>223683</v>
+        <v>222198</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>258715</v>
+        <v>257249</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>279002</v>
+        <v>281027</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>121520</v>
+        <v>120109</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>136769</v>
+        <v>135035</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>151586</v>
+        <v>151356</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>153894</v>
+        <v>156299</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>132169</v>
+        <v>131573</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>160502</v>
+        <v>163818</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>187898</v>
+        <v>184164</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>192176</v>
+        <v>193027</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>241244</v>
+        <v>241899</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>286302</v>
+        <v>282975</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>321975</v>
+        <v>319748</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>334701</v>
+        <v>335475</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>390162</v>
+        <v>392975</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>529592</v>
+        <v>531616</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>477744</v>
+        <v>476066</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>634555</v>
+        <v>632248</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>531505</v>
+        <v>530859</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>698521</v>
+        <v>697261</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>583726</v>
+        <v>583362</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>743658</v>
+        <v>747032</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>938882</v>
+        <v>944598</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1250743</v>
+        <v>1259635</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>1083616</v>
+        <v>1077963</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1393922</v>
+        <v>1399565</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>461222</v>
+        <v>465588</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>621119</v>
+        <v>620454</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>560082</v>
+        <v>559148</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>724610</v>
+        <v>722844</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>616521</v>
+        <v>613396</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>794942</v>
+        <v>795830</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>684331</v>
+        <v>679265</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>821606</v>
+        <v>824023</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1053732</v>
+        <v>1060589</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1389772</v>
+        <v>1393788</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>1207013</v>
+        <v>1202192</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1511140</v>
+        <v>1516600</v>
       </c>
     </row>
     <row r="40">
